--- a/data/hotels_by_city/Houston/Houston_shard_224.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_224.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="201">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,12 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56855-d226222-Reviews-Extended_Stay_America_Houston_NASA_Bay_Area_Blvd-Webster_Texas.html</t>
   </si>
   <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Extended-Stay-America-Houston-NASA-Bay-Area-Blvd.h120462.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +145,480 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/09/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d226222-r595593057-Extended_Stay_America_Houston_NASA_Bay_Area_Blvd-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>56855</t>
+  </si>
+  <si>
+    <t>226222</t>
+  </si>
+  <si>
+    <t>595593057</t>
+  </si>
+  <si>
+    <t>07/12/2018</t>
+  </si>
+  <si>
+    <t>Mr.</t>
+  </si>
+  <si>
+    <t>Britney was very nice and helpful! We spoke for a few minutes and she helped with understanding how everything works. Very helpful. Would recommend her. She said she enjoys music and my so does my family. Great gal!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - NASA - Bay Area Blvd., responded to this reviewResponded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>Britney was very nice and helpful! We spoke for a few minutes and she helped with understanding how everything works. Very helpful. Would recommend her. She said she enjoys music and my so does my family. Great gal!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d226222-r567895353-Extended_Stay_America_Houston_NASA_Bay_Area_Blvd-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>567895353</t>
+  </si>
+  <si>
+    <t>03/21/2018</t>
+  </si>
+  <si>
+    <t>Nice Staff &amp; Stay</t>
+  </si>
+  <si>
+    <t>I stayed over Spring Break week and I enjoyed my stay. I was worried it might be loud and crazy do to it being Spring Break but it was not. My room was clean and the staff was friendly and helpful. I would stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - NASA - Bay Area Blvd., responded to this reviewResponded March 22, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 22, 2018</t>
+  </si>
+  <si>
+    <t>I stayed over Spring Break week and I enjoyed my stay. I was worried it might be loud and crazy do to it being Spring Break but it was not. My room was clean and the staff was friendly and helpful. I would stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d226222-r567883473-Extended_Stay_America_Houston_NASA_Bay_Area_Blvd-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>567883473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great place </t>
+  </si>
+  <si>
+    <t>I stayed here for a business trip. The rooms were clean and the staff was extremely helpful and friendly. The manager on duty went above and beyond to make sure everything was perfect. Anytime I am in Houston I will be staying here. MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - NASA - Bay Area Blvd., responded to this reviewResponded March 23, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 23, 2018</t>
+  </si>
+  <si>
+    <t>I stayed here for a business trip. The rooms were clean and the staff was extremely helpful and friendly. The manager on duty went above and beyond to make sure everything was perfect. Anytime I am in Houston I will be staying here. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d226222-r552634101-Extended_Stay_America_Houston_NASA_Bay_Area_Blvd-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>552634101</t>
+  </si>
+  <si>
+    <t>01/08/2018</t>
+  </si>
+  <si>
+    <t>Clean room and Friendly staff</t>
+  </si>
+  <si>
+    <t>The room was clean and the staff were very friendly. I'll definitely use this hotel again. The people were friendly. The location was great and safe. Packing was limited but not a huge problem. I'll recommend this hotel to friends.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - NASA - Bay Area Blvd., responded to this reviewResponded January 9, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 9, 2018</t>
+  </si>
+  <si>
+    <t>The room was clean and the staff were very friendly. I'll definitely use this hotel again. The people were friendly. The location was great and safe. Packing was limited but not a huge problem. I'll recommend this hotel to friends.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d226222-r547190333-Extended_Stay_America_Houston_NASA_Bay_Area_Blvd-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>547190333</t>
+  </si>
+  <si>
+    <t>12/14/2017</t>
+  </si>
+  <si>
+    <t>Great Value and Great Location.</t>
+  </si>
+  <si>
+    <t>Hotel is centrally located in a great, safe area with access to the Medical Center. Excellent Restaurants are all around and this is also a great shopping (clothes, furniture, shoes, cars....) district. All basic needs are met and some are exceeded. The staff of this hotel are helpful and friendly.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - NASA - Bay Area Blvd., responded to this reviewResponded December 14, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 14, 2017</t>
+  </si>
+  <si>
+    <t>Hotel is centrally located in a great, safe area with access to the Medical Center. Excellent Restaurants are all around and this is also a great shopping (clothes, furniture, shoes, cars....) district. All basic needs are met and some are exceeded. The staff of this hotel are helpful and friendly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d226222-r546752141-Extended_Stay_America_Houston_NASA_Bay_Area_Blvd-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>546752141</t>
+  </si>
+  <si>
+    <t>12/10/2017</t>
+  </si>
+  <si>
+    <t>Clean But Uncomfortable</t>
+  </si>
+  <si>
+    <t>Every amenity provided here was very cheap. The toilet paper was almost transparent but still felt like sandpaper. Had to request a coffee pot for our room. They gave me one, but no mugs. The breakfast was instant oatmeal, coffee, &amp; granola bars. The only item for children to drink was hot chocolate. Which is not a healthy breakfast drink. There was shampoo, but no conditioner. The bed was very hard and pillows were flat. It was very clean, though.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - NASA - Bay Area Blvd., responded to this reviewResponded December 12, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 12, 2017</t>
+  </si>
+  <si>
+    <t>Every amenity provided here was very cheap. The toilet paper was almost transparent but still felt like sandpaper. Had to request a coffee pot for our room. They gave me one, but no mugs. The breakfast was instant oatmeal, coffee, &amp; granola bars. The only item for children to drink was hot chocolate. Which is not a healthy breakfast drink. There was shampoo, but no conditioner. The bed was very hard and pillows were flat. It was very clean, though.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d226222-r505170729-Extended_Stay_America_Houston_NASA_Bay_Area_Blvd-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>505170729</t>
+  </si>
+  <si>
+    <t>07/24/2017</t>
+  </si>
+  <si>
+    <t>Invasion of privacy</t>
+  </si>
+  <si>
+    <t>Roaches everywhere blood stains on pull out sofa sleeper mattress microwave roaches dishwasher was broke cabinets hanging off staff was uninteresting in helping evelvator very very slow building smell like mildew MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Houston - NASA - Bay Area Blvd., responded to this reviewResponded July 25, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 25, 2017</t>
+  </si>
+  <si>
+    <t>Roaches everywhere blood stains on pull out sofa sleeper mattress microwave roaches dishwasher was broke cabinets hanging off staff was uninteresting in helping evelvator very very slow building smell like mildew More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d226222-r503882498-Extended_Stay_America_Houston_NASA_Bay_Area_Blvd-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>503882498</t>
+  </si>
+  <si>
+    <t>07/20/2017</t>
+  </si>
+  <si>
+    <t>It's ok.</t>
+  </si>
+  <si>
+    <t>If only the tv was something you could watch. Few channels, lousy picture quality, no program guide. Just a very cheap service for what you are paying. And the breakfast is not a breakfast. Sam's Club muffins,when they had them, were the main draw for breakfast, with instant oatmeal as your backup or some trail mix bars. The coffee was good though.The staff was very helpful and friendly and provided quality service.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Houston - NASA - Bay Area Blvd., responded to this reviewResponded July 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 21, 2017</t>
+  </si>
+  <si>
+    <t>If only the tv was something you could watch. Few channels, lousy picture quality, no program guide. Just a very cheap service for what you are paying. And the breakfast is not a breakfast. Sam's Club muffins,when they had them, were the main draw for breakfast, with instant oatmeal as your backup or some trail mix bars. The coffee was good though.The staff was very helpful and friendly and provided quality service.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d226222-r502877114-Extended_Stay_America_Houston_NASA_Bay_Area_Blvd-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>502877114</t>
+  </si>
+  <si>
+    <t>07/17/2017</t>
+  </si>
+  <si>
+    <t>No review</t>
+  </si>
+  <si>
+    <t>Room was horrible tub was so bad the drain water was not working a lot of noises. At least they should leave a bottle of water. Elevator to go up and down was so slow. Curtain room ugly not recommended MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Houston - NASA - Bay Area Blvd., responded to this reviewResponded July 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 17, 2017</t>
+  </si>
+  <si>
+    <t>Room was horrible tub was so bad the drain water was not working a lot of noises. At least they should leave a bottle of water. Elevator to go up and down was so slow. Curtain room ugly not recommended More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d226222-r498974770-Extended_Stay_America_Houston_NASA_Bay_Area_Blvd-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>498974770</t>
+  </si>
+  <si>
+    <t>07/05/2017</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>Wish they serviced full breaskfast. They have grab and go. Prices and location was good. Free wifi and outside pool area. Friendly service but we had to ask for more towels after handing ours back. Quite area. MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Houston - NASA - Bay Area Blvd., responded to this reviewResponded July 7, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 7, 2017</t>
+  </si>
+  <si>
+    <t>Wish they serviced full breaskfast. They have grab and go. Prices and location was good. Free wifi and outside pool area. Friendly service but we had to ask for more towels after handing ours back. Quite area. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d226222-r493595546-Extended_Stay_America_Houston_NASA_Bay_Area_Blvd-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>493595546</t>
+  </si>
+  <si>
+    <t>06/16/2017</t>
+  </si>
+  <si>
+    <t>HOME AWAY FROM HOME</t>
+  </si>
+  <si>
+    <t>My name is Fred. This review is a bit different as I'm a businessman from the East Coast and I traveled to Houston for a relocation and checked in here back in Sept 2016 and I'm still here. Upon walking in I found the place clean and quiet and was greeted by front desk personnel in a very professional manner.  I was informed that I had arrived a bit early and would need to return that afternoon to complete my check-in process. Upon returning, I was again greeted by the same person from earlier that morning although the rest of my check-in was completed by another employee who I later found out was actually the General Manager. I then checked into a nice L-shaped Suite with an enormous and comfortable King size bed. The suite has a full kitchen, 2 tv's and all the amenities you need to live quite comfortably...the equivalent of a small apartment. The suite is comfortable and always clean as housekeeping drops by weekly to clean it and I find them quite proficient. The rest of the staff that I've interacted with is always friendly, kind and courteous to me and even has a tendency to be humorous at times. I find that comforting. The hotel is located in a very busy area approx 1 mile from a major mall and I've seen a lot of people come and go and have always seen everyone treated...My name is Fred. This review is a bit different as I'm a businessman from the East Coast and I traveled to Houston for a relocation and checked in here back in Sept 2016 and I'm still here. Upon walking in I found the place clean and quiet and was greeted by front desk personnel in a very professional manner.  I was informed that I had arrived a bit early and would need to return that afternoon to complete my check-in process. Upon returning, I was again greeted by the same person from earlier that morning although the rest of my check-in was completed by another employee who I later found out was actually the General Manager. I then checked into a nice L-shaped Suite with an enormous and comfortable King size bed. The suite has a full kitchen, 2 tv's and all the amenities you need to live quite comfortably...the equivalent of a small apartment. The suite is comfortable and always clean as housekeeping drops by weekly to clean it and I find them quite proficient. The rest of the staff that I've interacted with is always friendly, kind and courteous to me and even has a tendency to be humorous at times. I find that comforting. The hotel is located in a very busy area approx 1 mile from a major mall and I've seen a lot of people come and go and have always seen everyone treated fairly and respectfully by a staff that is obviously well trained. This is a great place to stay whether long or short term and I recommend it with confidence to anyone, regardless of their needs...you'll be comfortable here. Also...I have found over time that the General Manager here is friendly and very professional with a warm personality and she runs the place tightly which definitely aids in a comfortable, welcome stay. This is my HOME AWAY FROM HOME!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Houston - NASA - Bay Area Blvd., responded to this reviewResponded June 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 17, 2017</t>
+  </si>
+  <si>
+    <t>My name is Fred. This review is a bit different as I'm a businessman from the East Coast and I traveled to Houston for a relocation and checked in here back in Sept 2016 and I'm still here. Upon walking in I found the place clean and quiet and was greeted by front desk personnel in a very professional manner.  I was informed that I had arrived a bit early and would need to return that afternoon to complete my check-in process. Upon returning, I was again greeted by the same person from earlier that morning although the rest of my check-in was completed by another employee who I later found out was actually the General Manager. I then checked into a nice L-shaped Suite with an enormous and comfortable King size bed. The suite has a full kitchen, 2 tv's and all the amenities you need to live quite comfortably...the equivalent of a small apartment. The suite is comfortable and always clean as housekeeping drops by weekly to clean it and I find them quite proficient. The rest of the staff that I've interacted with is always friendly, kind and courteous to me and even has a tendency to be humorous at times. I find that comforting. The hotel is located in a very busy area approx 1 mile from a major mall and I've seen a lot of people come and go and have always seen everyone treated...My name is Fred. This review is a bit different as I'm a businessman from the East Coast and I traveled to Houston for a relocation and checked in here back in Sept 2016 and I'm still here. Upon walking in I found the place clean and quiet and was greeted by front desk personnel in a very professional manner.  I was informed that I had arrived a bit early and would need to return that afternoon to complete my check-in process. Upon returning, I was again greeted by the same person from earlier that morning although the rest of my check-in was completed by another employee who I later found out was actually the General Manager. I then checked into a nice L-shaped Suite with an enormous and comfortable King size bed. The suite has a full kitchen, 2 tv's and all the amenities you need to live quite comfortably...the equivalent of a small apartment. The suite is comfortable and always clean as housekeeping drops by weekly to clean it and I find them quite proficient. The rest of the staff that I've interacted with is always friendly, kind and courteous to me and even has a tendency to be humorous at times. I find that comforting. The hotel is located in a very busy area approx 1 mile from a major mall and I've seen a lot of people come and go and have always seen everyone treated fairly and respectfully by a staff that is obviously well trained. This is a great place to stay whether long or short term and I recommend it with confidence to anyone, regardless of their needs...you'll be comfortable here. Also...I have found over time that the General Manager here is friendly and very professional with a warm personality and she runs the place tightly which definitely aids in a comfortable, welcome stay. This is my HOME AWAY FROM HOME!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d226222-r493538134-Extended_Stay_America_Houston_NASA_Bay_Area_Blvd-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>493538134</t>
+  </si>
+  <si>
+    <t>Loved my stay</t>
+  </si>
+  <si>
+    <t>I stayed at the Bay Area Extended Stay and was very pleased. Staff is very professional , property is very clean, the pool is great and I love the workout area . I felt welcomed and comfortable. I would recommend this location to anyone here in the area. MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed at the Bay Area Extended Stay and was very pleased. Staff is very professional , property is very clean, the pool is great and I love the workout area . I felt welcomed and comfortable. I would recommend this location to anyone here in the area. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d226222-r476924904-Extended_Stay_America_Houston_NASA_Bay_Area_Blvd-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>476924904</t>
+  </si>
+  <si>
+    <t>04/18/2017</t>
+  </si>
+  <si>
+    <t>You may like this hotel IF:</t>
+  </si>
+  <si>
+    <t>You like not having anyone at the front desk to greet you. You like hearing EVERYTHING your next door room neighbors are saying.  You like hearing what other people are saying when you walk down the hall.  You don't care that the "free breakfast" is instant oatmeal, granola bars and Otis Spunkmeyer mini-muffins.  You don't care that you need to get to the breakfast room early or coffee is out.  You like threadbare linens with burn holes and towels that are thin and scratchy.  You don't care that the room is only cleaned once a week and the hallways look like they are vacuumed when??  You like having to bring your own everything to use in the kitchenette.AND you don't care that this non-smoking hotel has cigarette smell, butts and a trash receptacle just so you can snuff out your cigarette.  You WON'T like it if you like manicured lawns and convenience to restaurants and a main highway.Hope this helps all my fellow travelers.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Houston - NASA - Bay Area Blvd., responded to this reviewResponded April 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 19, 2017</t>
+  </si>
+  <si>
+    <t>You like not having anyone at the front desk to greet you. You like hearing EVERYTHING your next door room neighbors are saying.  You like hearing what other people are saying when you walk down the hall.  You don't care that the "free breakfast" is instant oatmeal, granola bars and Otis Spunkmeyer mini-muffins.  You don't care that you need to get to the breakfast room early or coffee is out.  You like threadbare linens with burn holes and towels that are thin and scratchy.  You don't care that the room is only cleaned once a week and the hallways look like they are vacuumed when??  You like having to bring your own everything to use in the kitchenette.AND you don't care that this non-smoking hotel has cigarette smell, butts and a trash receptacle just so you can snuff out your cigarette.  You WON'T like it if you like manicured lawns and convenience to restaurants and a main highway.Hope this helps all my fellow travelers.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d226222-r470924380-Extended_Stay_America_Houston_NASA_Bay_Area_Blvd-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>470924380</t>
+  </si>
+  <si>
+    <t>03/28/2017</t>
+  </si>
+  <si>
+    <t>Booted out</t>
+  </si>
+  <si>
+    <t>So, we checked in on a Tuesday and needed a room for three nights. Lady at front desk said we could have room with a king bed and sleeper sofa for two nights and we'd have to change rooms for the third night to one with two queens - unless someone cancelled. No problem we'll take it. We were told to check back on Wednesday evening about staying in the same room so we did and the young man at the front desk said no problem I'll extend your stay for another night and you won't have to change rooms. Great, I'm happy, wife is happy and grown daughter is happy. All is good - not fast - the next morning we sleep in. Daughter has a migraine and wants to stay in bed, wife and I are planning our day then boom. We get a knock on the door (even though the do not disturb sign is out) cleaning ladies want to clean and they're telling us we to check out. No, no, no I say. We are here until tomorrow.  They leave then we get a call telling us we have to check out, room is rented to someone else. I go through all the details three times and in the end we get booted out of that room immediately because other guests are coming and they have no other room for us at all. So, we quickly...So, we checked in on a Tuesday and needed a room for three nights. Lady at front desk said we could have room with a king bed and sleeper sofa for two nights and we'd have to change rooms for the third night to one with two queens - unless someone cancelled. No problem we'll take it. We were told to check back on Wednesday evening about staying in the same room so we did and the young man at the front desk said no problem I'll extend your stay for another night and you won't have to change rooms. Great, I'm happy, wife is happy and grown daughter is happy. All is good - not fast - the next morning we sleep in. Daughter has a migraine and wants to stay in bed, wife and I are planning our day then boom. We get a knock on the door (even though the do not disturb sign is out) cleaning ladies want to clean and they're telling us we to check out. No, no, no I say. We are here until tomorrow.  They leave then we get a call telling us we have to check out, room is rented to someone else. I go through all the details three times and in the end we get booted out of that room immediately because other guests are coming and they have no other room for us at all. So, we quickly pack up everything with sick daughter in tow and her cat and we're without a place to stay thanks to the unfriendly folks at Extended Stay America. Thank goodness for LA Quinta Inn and Suites in Webster,  TX. They go us a much, much nicer room with better hotel amenities and a much cleaner hotel and great staff. I'll sleep in my car before I'll stay at another Extended Stay America hotel in my life. Kudos to LA Quinta as you will always be on my list of possibilities. MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>So, we checked in on a Tuesday and needed a room for three nights. Lady at front desk said we could have room with a king bed and sleeper sofa for two nights and we'd have to change rooms for the third night to one with two queens - unless someone cancelled. No problem we'll take it. We were told to check back on Wednesday evening about staying in the same room so we did and the young man at the front desk said no problem I'll extend your stay for another night and you won't have to change rooms. Great, I'm happy, wife is happy and grown daughter is happy. All is good - not fast - the next morning we sleep in. Daughter has a migraine and wants to stay in bed, wife and I are planning our day then boom. We get a knock on the door (even though the do not disturb sign is out) cleaning ladies want to clean and they're telling us we to check out. No, no, no I say. We are here until tomorrow.  They leave then we get a call telling us we have to check out, room is rented to someone else. I go through all the details three times and in the end we get booted out of that room immediately because other guests are coming and they have no other room for us at all. So, we quickly...So, we checked in on a Tuesday and needed a room for three nights. Lady at front desk said we could have room with a king bed and sleeper sofa for two nights and we'd have to change rooms for the third night to one with two queens - unless someone cancelled. No problem we'll take it. We were told to check back on Wednesday evening about staying in the same room so we did and the young man at the front desk said no problem I'll extend your stay for another night and you won't have to change rooms. Great, I'm happy, wife is happy and grown daughter is happy. All is good - not fast - the next morning we sleep in. Daughter has a migraine and wants to stay in bed, wife and I are planning our day then boom. We get a knock on the door (even though the do not disturb sign is out) cleaning ladies want to clean and they're telling us we to check out. No, no, no I say. We are here until tomorrow.  They leave then we get a call telling us we have to check out, room is rented to someone else. I go through all the details three times and in the end we get booted out of that room immediately because other guests are coming and they have no other room for us at all. So, we quickly pack up everything with sick daughter in tow and her cat and we're without a place to stay thanks to the unfriendly folks at Extended Stay America. Thank goodness for LA Quinta Inn and Suites in Webster,  TX. They go us a much, much nicer room with better hotel amenities and a much cleaner hotel and great staff. I'll sleep in my car before I'll stay at another Extended Stay America hotel in my life. Kudos to LA Quinta as you will always be on my list of possibilities. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d226222-r459055085-Extended_Stay_America_Houston_NASA_Bay_Area_Blvd-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>459055085</t>
+  </si>
+  <si>
+    <t>02/12/2017</t>
+  </si>
+  <si>
+    <t>Not What I Expected</t>
+  </si>
+  <si>
+    <t>I've stayed at other Extended Stay locations and never had a problem. Here there were only two wash cloths for a week stay, toilet clogged and was told to wait, found fleas in the room. Not impressed. MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Houston - NASA - Bay Area Blvd., responded to this reviewResponded February 16, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 16, 2017</t>
+  </si>
+  <si>
+    <t>I've stayed at other Extended Stay locations and never had a problem. Here there were only two wash cloths for a week stay, toilet clogged and was told to wait, found fleas in the room. Not impressed. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d226222-r403742842-Extended_Stay_America_Houston_NASA_Bay_Area_Blvd-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>403742842</t>
+  </si>
+  <si>
+    <t>08/10/2016</t>
+  </si>
+  <si>
+    <t>Great Stay!</t>
+  </si>
+  <si>
+    <t>The hotel has been remodeled and it's by no means 5 star but the employees (minus the grumpy house keeper) ARE! The room was clean and the AC worked great!!! We stayed here for a month waiting for our house to be completed and it wasn't so bad.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Houston - NASA - Bay Area Blvd., responded to this reviewResponded August 17, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 17, 2016</t>
+  </si>
+  <si>
+    <t>The hotel has been remodeled and it's by no means 5 star but the employees (minus the grumpy house keeper) ARE! The room was clean and the AC worked great!!! We stayed here for a month waiting for our house to be completed and it wasn't so bad.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d226222-r402613448-Extended_Stay_America_Houston_NASA_Bay_Area_Blvd-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>402613448</t>
+  </si>
+  <si>
+    <t>08/07/2016</t>
+  </si>
+  <si>
+    <t>We had excellent customer service, the manager on duty took care of us</t>
+  </si>
+  <si>
+    <t>Great room for the price...check in was easy, had staff shortage for housekeeping but the manager on duty, Brett-from another location, helped us with everything we needed and needs to be given a raise for his participation in making things run smoothly; the room was comfortable, air conditioned, the building was under roof repair-(it was stated on the website prior to booking) the pool was covered to prevent damage. The laundry facility and fitness center were clean.  The continental breakfast consisted of basic items, The staff was friendly and helpful.  Well worth the price- No complaints- will returnMoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Houston - NASA - Bay Area Blvd., responded to this reviewResponded August 15, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 15, 2016</t>
+  </si>
+  <si>
+    <t>Great room for the price...check in was easy, had staff shortage for housekeeping but the manager on duty, Brett-from another location, helped us with everything we needed and needs to be given a raise for his participation in making things run smoothly; the room was comfortable, air conditioned, the building was under roof repair-(it was stated on the website prior to booking) the pool was covered to prevent damage. The laundry facility and fitness center were clean.  The continental breakfast consisted of basic items, The staff was friendly and helpful.  Well worth the price- No complaints- will returnMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d226222-r400470104-Extended_Stay_America_Houston_NASA_Bay_Area_Blvd-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>400470104</t>
+  </si>
+  <si>
+    <t>08/02/2016</t>
+  </si>
+  <si>
+    <t>Pleasant.</t>
+  </si>
+  <si>
+    <t>Had a pleasant stay, the room I had was clean but had a faint smell of smoke for a non smoking.  It was nice and quiet and the staff friendly. Don't count on any breakfast unless you consider coffee, muffins and instant oatmeal breakfast, no fruit or protein.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Houston - NASA - Bay Area Blvd., responded to this reviewResponded August 19, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 19, 2016</t>
+  </si>
+  <si>
+    <t>Had a pleasant stay, the room I had was clean but had a faint smell of smoke for a non smoking.  It was nice and quiet and the staff friendly. Don't count on any breakfast unless you consider coffee, muffins and instant oatmeal breakfast, no fruit or protein.More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1012,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1044,1239 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>36291</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>53</v>
+      </c>
+      <c r="X2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>36291</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>61</v>
+      </c>
+      <c r="O3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P3" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="n">
+        <v>5</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>62</v>
+      </c>
+      <c r="X3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>36291</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" t="s">
+        <v>58</v>
+      </c>
+      <c r="K4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>61</v>
+      </c>
+      <c r="O4" t="s">
+        <v>69</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>70</v>
+      </c>
+      <c r="X4" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>36291</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J5" t="s">
+        <v>75</v>
+      </c>
+      <c r="K5" t="s">
+        <v>76</v>
+      </c>
+      <c r="L5" t="s">
+        <v>77</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>78</v>
+      </c>
+      <c r="O5" t="s">
+        <v>79</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>80</v>
+      </c>
+      <c r="X5" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>36291</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J6" t="s">
+        <v>85</v>
+      </c>
+      <c r="K6" t="s">
+        <v>86</v>
+      </c>
+      <c r="L6" t="s">
+        <v>87</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>88</v>
+      </c>
+      <c r="O6" t="s">
+        <v>89</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>90</v>
+      </c>
+      <c r="X6" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>36291</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>94</v>
+      </c>
+      <c r="J7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K7" t="s">
+        <v>96</v>
+      </c>
+      <c r="L7" t="s">
+        <v>97</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
+        <v>88</v>
+      </c>
+      <c r="O7" t="s">
+        <v>89</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>3</v>
+      </c>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>4</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>98</v>
+      </c>
+      <c r="X7" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>36291</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>101</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>102</v>
+      </c>
+      <c r="J8" t="s">
+        <v>103</v>
+      </c>
+      <c r="K8" t="s">
+        <v>104</v>
+      </c>
+      <c r="L8" t="s">
+        <v>105</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>106</v>
+      </c>
+      <c r="O8" t="s">
+        <v>52</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>2</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>107</v>
+      </c>
+      <c r="X8" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>36291</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>110</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>111</v>
+      </c>
+      <c r="J9" t="s">
+        <v>112</v>
+      </c>
+      <c r="K9" t="s">
+        <v>113</v>
+      </c>
+      <c r="L9" t="s">
+        <v>114</v>
+      </c>
+      <c r="M9" t="n">
+        <v>3</v>
+      </c>
+      <c r="N9" t="s">
+        <v>106</v>
+      </c>
+      <c r="O9" t="s">
+        <v>115</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>4</v>
+      </c>
+      <c r="R9" t="n">
+        <v>4</v>
+      </c>
+      <c r="S9" t="n">
+        <v>4</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>4</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>116</v>
+      </c>
+      <c r="X9" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>36291</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>119</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>120</v>
+      </c>
+      <c r="J10" t="s">
+        <v>121</v>
+      </c>
+      <c r="K10" t="s">
+        <v>122</v>
+      </c>
+      <c r="L10" t="s">
+        <v>123</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>106</v>
+      </c>
+      <c r="O10" t="s">
+        <v>52</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" t="n">
+        <v>3</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>3</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>124</v>
+      </c>
+      <c r="X10" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>36291</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>127</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>128</v>
+      </c>
+      <c r="J11" t="s">
+        <v>129</v>
+      </c>
+      <c r="K11" t="s">
+        <v>130</v>
+      </c>
+      <c r="L11" t="s">
+        <v>131</v>
+      </c>
+      <c r="M11" t="n">
+        <v>3</v>
+      </c>
+      <c r="N11" t="s">
+        <v>132</v>
+      </c>
+      <c r="O11" t="s">
+        <v>79</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>3</v>
+      </c>
+      <c r="R11" t="n">
+        <v>3</v>
+      </c>
+      <c r="S11" t="n">
+        <v>3</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>3</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>133</v>
+      </c>
+      <c r="X11" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>36291</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>136</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>137</v>
+      </c>
+      <c r="J12" t="s">
+        <v>138</v>
+      </c>
+      <c r="K12" t="s">
+        <v>139</v>
+      </c>
+      <c r="L12" t="s">
+        <v>140</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s"/>
+      <c r="O12" t="s"/>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>141</v>
+      </c>
+      <c r="X12" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>36291</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>144</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>145</v>
+      </c>
+      <c r="J13" t="s">
+        <v>138</v>
+      </c>
+      <c r="K13" t="s">
+        <v>146</v>
+      </c>
+      <c r="L13" t="s">
+        <v>147</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s"/>
+      <c r="O13" t="s"/>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>141</v>
+      </c>
+      <c r="X13" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>36291</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>149</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>150</v>
+      </c>
+      <c r="J14" t="s">
+        <v>151</v>
+      </c>
+      <c r="K14" t="s">
+        <v>152</v>
+      </c>
+      <c r="L14" t="s">
+        <v>153</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>154</v>
+      </c>
+      <c r="O14" t="s">
+        <v>69</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>155</v>
+      </c>
+      <c r="X14" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>36291</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>158</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>159</v>
+      </c>
+      <c r="J15" t="s">
+        <v>160</v>
+      </c>
+      <c r="K15" t="s">
+        <v>161</v>
+      </c>
+      <c r="L15" t="s">
+        <v>162</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" t="s">
+        <v>163</v>
+      </c>
+      <c r="O15" t="s">
+        <v>52</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>36291</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>165</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>166</v>
+      </c>
+      <c r="J16" t="s">
+        <v>167</v>
+      </c>
+      <c r="K16" t="s">
+        <v>168</v>
+      </c>
+      <c r="L16" t="s">
+        <v>169</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" t="s">
+        <v>170</v>
+      </c>
+      <c r="O16" t="s">
+        <v>115</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>171</v>
+      </c>
+      <c r="X16" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>36291</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>174</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>175</v>
+      </c>
+      <c r="J17" t="s">
+        <v>176</v>
+      </c>
+      <c r="K17" t="s">
+        <v>177</v>
+      </c>
+      <c r="L17" t="s">
+        <v>178</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" t="s">
+        <v>179</v>
+      </c>
+      <c r="O17" t="s">
+        <v>52</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>180</v>
+      </c>
+      <c r="X17" t="s">
+        <v>181</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>36291</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>183</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>184</v>
+      </c>
+      <c r="J18" t="s">
+        <v>185</v>
+      </c>
+      <c r="K18" t="s">
+        <v>186</v>
+      </c>
+      <c r="L18" t="s">
+        <v>187</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>188</v>
+      </c>
+      <c r="O18" t="s">
+        <v>89</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>189</v>
+      </c>
+      <c r="X18" t="s">
+        <v>190</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>36291</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>32</v>
-      </c>
-      <c r="R1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S1" t="s">
-        <v>34</v>
-      </c>
-      <c r="T1" t="s">
-        <v>35</v>
-      </c>
-      <c r="U1" t="s">
-        <v>36</v>
-      </c>
-      <c r="V1" t="s">
-        <v>37</v>
-      </c>
-      <c r="W1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>40</v>
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>192</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>193</v>
+      </c>
+      <c r="J19" t="s">
+        <v>194</v>
+      </c>
+      <c r="K19" t="s">
+        <v>195</v>
+      </c>
+      <c r="L19" t="s">
+        <v>196</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>197</v>
+      </c>
+      <c r="O19" t="s">
+        <v>115</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>198</v>
+      </c>
+      <c r="X19" t="s">
+        <v>199</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_224.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_224.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="302">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -147,18 +147,72 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/09/2018</t>
+    <t>09/05/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d226222-r600458050-Extended_Stay_America_Houston_NASA_Bay_Area_Blvd-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>56855</t>
+  </si>
+  <si>
+    <t>226222</t>
+  </si>
+  <si>
+    <t>600458050</t>
+  </si>
+  <si>
+    <t>07/28/2018</t>
+  </si>
+  <si>
+    <t>Weekend trip</t>
+  </si>
+  <si>
+    <t>My family and I stayed at this location July 27. We board our cruise later today in galveston and needed somewhere in the area to stay for the night and didn't want to chance being late. Room was great for what we needed. Breakfast was okay. The 2 people we encountered at the front desk were helpful getting us directions.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - NASA - Bay Area Blvd., responded to this reviewResponded July 28, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 28, 2018</t>
+  </si>
+  <si>
+    <t>My family and I stayed at this location July 27. We board our cruise later today in galveston and needed somewhere in the area to stay for the night and didn't want to chance being late. Room was great for what we needed. Breakfast was okay. The 2 people we encountered at the front desk were helpful getting us directions.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d226222-r595978353-Extended_Stay_America_Houston_NASA_Bay_Area_Blvd-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>595978353</t>
+  </si>
+  <si>
+    <t>07/13/2018</t>
+  </si>
+  <si>
+    <t>Family trip</t>
+  </si>
+  <si>
+    <t>My children and I stayed here on 7/9-7/12 visiting family. We really enjoyed the stay from beginning to end. The staff was friendly and very knowledgeable of the area making it easy enough for us to get around to find food when we were not with our family in town.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - NASA - Bay Area Blvd., responded to this reviewResponded July 14, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 14, 2018</t>
+  </si>
+  <si>
+    <t>My children and I stayed here on 7/9-7/12 visiting family. We really enjoyed the stay from beginning to end. The staff was friendly and very knowledgeable of the area making it easy enough for us to get around to find food when we were not with our family in town.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d226222-r595593057-Extended_Stay_America_Houston_NASA_Bay_Area_Blvd-Webster_Texas.html</t>
   </si>
   <si>
-    <t>56855</t>
-  </si>
-  <si>
-    <t>226222</t>
-  </si>
-  <si>
     <t>595593057</t>
   </si>
   <si>
@@ -171,16 +225,10 @@
     <t>Britney was very nice and helpful! We spoke for a few minutes and she helped with understanding how everything works. Very helpful. Would recommend her. She said she enjoys music and my so does my family. Great gal!MoreShow less</t>
   </si>
   <si>
-    <t>July 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
-    <t>00esa, Manager at Extended Stay America - Houston - NASA - Bay Area Blvd., responded to this reviewResponded 4 weeks ago</t>
-  </si>
-  <si>
-    <t>Responded 4 weeks ago</t>
+    <t>00esa, Manager at Extended Stay America - Houston - NASA - Bay Area Blvd., responded to this reviewResponded July 12, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 12, 2018</t>
   </si>
   <si>
     <t>Britney was very nice and helpful! We spoke for a few minutes and she helped with understanding how everything works. Very helpful. Would recommend her. She said she enjoys music and my so does my family. Great gal!More</t>
@@ -237,6 +285,63 @@
     <t>I stayed here for a business trip. The rooms were clean and the staff was extremely helpful and friendly. The manager on duty went above and beyond to make sure everything was perfect. Anytime I am in Houston I will be staying here. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d226222-r563441672-Extended_Stay_America_Houston_NASA_Bay_Area_Blvd-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>563441672</t>
+  </si>
+  <si>
+    <t>02/28/2018</t>
+  </si>
+  <si>
+    <t>Great place to stay</t>
+  </si>
+  <si>
+    <t>My wife and I spent 3 weeks at the extended  stay motel while working with the recovery effort in the wake of "Harvey". This hotel was a wonderful place to stay. It was quiet, clean had good laundry facilities and the kitchen was fine. I would stay again for sure.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - NASA - Bay Area Blvd., responded to this reviewResponded March 1, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 1, 2018</t>
+  </si>
+  <si>
+    <t>My wife and I spent 3 weeks at the extended  stay motel while working with the recovery effort in the wake of "Harvey". This hotel was a wonderful place to stay. It was quiet, clean had good laundry facilities and the kitchen was fine. I would stay again for sure.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d226222-r553441411-Extended_Stay_America_Houston_NASA_Bay_Area_Blvd-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>553441411</t>
+  </si>
+  <si>
+    <t>01/12/2018</t>
+  </si>
+  <si>
+    <t>Go somewhere else</t>
+  </si>
+  <si>
+    <t>No breakfast,  even it was advertised. Most of cable TV channels was grainy,  room smelled like a pet house. Everything was bare minimum, if at that. TV was tiny screen. There are no services provided. Bed and couch were uncomfortable.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - NASA - Bay Area Blvd., responded to this reviewResponded January 13, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 13, 2018</t>
+  </si>
+  <si>
+    <t>No breakfast,  even it was advertised. Most of cable TV channels was grainy,  room smelled like a pet house. Everything was bare minimum, if at that. TV was tiny screen. There are no services provided. Bed and couch were uncomfortable.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d226222-r552634101-Extended_Stay_America_Houston_NASA_Bay_Area_Blvd-Webster_Texas.html</t>
   </si>
   <si>
@@ -252,9 +357,6 @@
     <t>The room was clean and the staff were very friendly. I'll definitely use this hotel again. The people were friendly. The location was great and safe. Packing was limited but not a huge problem. I'll recommend this hotel to friends.MoreShow less</t>
   </si>
   <si>
-    <t>January 2018</t>
-  </si>
-  <si>
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
@@ -285,9 +387,6 @@
     <t>December 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>00esa, Manager at Extended Stay America - Houston - NASA - Bay Area Blvd., responded to this reviewResponded December 14, 2017</t>
   </si>
   <si>
@@ -321,6 +420,60 @@
     <t>Every amenity provided here was very cheap. The toilet paper was almost transparent but still felt like sandpaper. Had to request a coffee pot for our room. They gave me one, but no mugs. The breakfast was instant oatmeal, coffee, &amp; granola bars. The only item for children to drink was hot chocolate. Which is not a healthy breakfast drink. There was shampoo, but no conditioner. The bed was very hard and pillows were flat. It was very clean, though.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d226222-r524851280-Extended_Stay_America_Houston_NASA_Bay_Area_Blvd-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>524851280</t>
+  </si>
+  <si>
+    <t>09/16/2017</t>
+  </si>
+  <si>
+    <t>If Price Is Right, Go For It</t>
+  </si>
+  <si>
+    <t>The room and property were clean.  Never saw a single bug.  You get a 2-burner stove, sink, microwave and full-size fridge/freezer.  Great area - tons of close shopping and food.  The price was competitive, so you can't expect the Four Seasons.  Room was small, the work area/table very small.  My recliner wouldn't recline.  TV channels are limited and 1/2 of those are fuzzy - that IS something I expect even a budget hotel to fix.  The free internet was super-duper slow, they have an upgraded pay internet (which I refused to pay).  Don't plan to sleep in - you'll hear every door from up &amp; down hall slam starting about 5:30/6:00 am.  I still give it 3-stars because it was clean, safe, and comfortable at a price comparable to budget-hotels in the area.  When compared to similar priced hotels, it looks pretty good.  (Management - fix the TV and internet issues!)MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Houston - NASA - Bay Area Blvd., responded to this reviewResponded September 16, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 16, 2017</t>
+  </si>
+  <si>
+    <t>The room and property were clean.  Never saw a single bug.  You get a 2-burner stove, sink, microwave and full-size fridge/freezer.  Great area - tons of close shopping and food.  The price was competitive, so you can't expect the Four Seasons.  Room was small, the work area/table very small.  My recliner wouldn't recline.  TV channels are limited and 1/2 of those are fuzzy - that IS something I expect even a budget hotel to fix.  The free internet was super-duper slow, they have an upgraded pay internet (which I refused to pay).  Don't plan to sleep in - you'll hear every door from up &amp; down hall slam starting about 5:30/6:00 am.  I still give it 3-stars because it was clean, safe, and comfortable at a price comparable to budget-hotels in the area.  When compared to similar priced hotels, it looks pretty good.  (Management - fix the TV and internet issues!)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d226222-r507499804-Extended_Stay_America_Houston_NASA_Bay_Area_Blvd-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>507499804</t>
+  </si>
+  <si>
+    <t>07/31/2017</t>
+  </si>
+  <si>
+    <t>Roach Motel!!!</t>
+  </si>
+  <si>
+    <t>Roaches everywhere. Rooms smelled of fish. Roaches everywhere.Linens felt already used. Did I mention the roaches? Towels felt dirty. Roaches everywhere! I mentioned the roaches and the receptionist didn't care as if they already knew. Didn't feel like they intend to get it taken care of.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Houston - NASA - Bay Area Blvd., responded to this reviewResponded July 31, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 31, 2017</t>
+  </si>
+  <si>
+    <t>Roaches everywhere. Rooms smelled of fish. Roaches everywhere.Linens felt already used. Did I mention the roaches? Towels felt dirty. Roaches everywhere! I mentioned the roaches and the receptionist didn't care as if they already knew. Didn't feel like they intend to get it taken care of.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d226222-r505170729-Extended_Stay_America_Houston_NASA_Bay_Area_Blvd-Webster_Texas.html</t>
   </si>
   <si>
@@ -336,9 +489,6 @@
     <t>Roaches everywhere blood stains on pull out sofa sleeper mattress microwave roaches dishwasher was broke cabinets hanging off staff was uninteresting in helping evelvator very very slow building smell like mildew MoreShow less</t>
   </si>
   <si>
-    <t>July 2017</t>
-  </si>
-  <si>
     <t>00esa, General Manager at Extended Stay America - Houston - NASA - Bay Area Blvd., responded to this reviewResponded July 25, 2017</t>
   </si>
   <si>
@@ -399,6 +549,51 @@
     <t>Room was horrible tub was so bad the drain water was not working a lot of noises. At least they should leave a bottle of water. Elevator to go up and down was so slow. Curtain room ugly not recommended More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d226222-r503055910-Extended_Stay_America_Houston_NASA_Bay_Area_Blvd-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>503055910</t>
+  </si>
+  <si>
+    <t>2 night stay</t>
+  </si>
+  <si>
+    <t>Poor options for breakfast (granola bars &amp; instant oatmeal but there was coffee...I always found one coffee filler empty &amp; that was the dark roast);There was no ice machine on the premise; We had to make our own ice which was by using the  two ice trays that we found empty in the freezer;   Microwave didn't workMoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Houston - NASA - Bay Area Blvd., responded to this reviewResponded July 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 19, 2017</t>
+  </si>
+  <si>
+    <t>Poor options for breakfast (granola bars &amp; instant oatmeal but there was coffee...I always found one coffee filler empty &amp; that was the dark roast);There was no ice machine on the premise; We had to make our own ice which was by using the  two ice trays that we found empty in the freezer;   Microwave didn't workMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d226222-r500986245-Extended_Stay_America_Houston_NASA_Bay_Area_Blvd-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>500986245</t>
+  </si>
+  <si>
+    <t>07/11/2017</t>
+  </si>
+  <si>
+    <t>Not So Great</t>
+  </si>
+  <si>
+    <t>I would classify this place as economy lodging.  Means great price, but that's about it.  Room had an odor, lamp broken, internet so slow it was not useable.  Located in a decent part of town, with good freeway access, but not worth the price.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Houston - NASA - Bay Area Blvd., responded to this reviewResponded July 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 13, 2017</t>
+  </si>
+  <si>
+    <t>I would classify this place as economy lodging.  Means great price, but that's about it.  Room had an odor, lamp broken, internet so slow it was not useable.  Located in a decent part of town, with good freeway access, but not worth the price.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d226222-r498974770-Extended_Stay_America_Houston_NASA_Bay_Area_Blvd-Webster_Texas.html</t>
   </si>
   <si>
@@ -465,30 +660,69 @@
     <t>I stayed at the Bay Area Extended Stay and was very pleased. Staff is very professional , property is very clean, the pool is great and I love the workout area . I felt welcomed and comfortable. I would recommend this location to anyone here in the area. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d226222-r482693203-Extended_Stay_America_Houston_NASA_Bay_Area_Blvd-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>482693203</t>
+  </si>
+  <si>
+    <t>05/08/2017</t>
+  </si>
+  <si>
+    <t>Easy off, easy on</t>
+  </si>
+  <si>
+    <t>We stay in ESA a lot.  We were on our way to Galveston for a cruise.  This is the perfect location for that destination.  The hotel was clean.  Our king room appeared to have been recently redone.  If you want coffee, ask for a pot (and all that goes with it) to take to your room.  I understand that they would rather have them in the room for you, but unfortunately, too many people consider it theirs to take. Good help at desk and very obliging.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Houston - NASA - Bay Area Blvd., responded to this reviewResponded May 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 9, 2017</t>
+  </si>
+  <si>
+    <t>We stay in ESA a lot.  We were on our way to Galveston for a cruise.  This is the perfect location for that destination.  The hotel was clean.  Our king room appeared to have been recently redone.  If you want coffee, ask for a pot (and all that goes with it) to take to your room.  I understand that they would rather have them in the room for you, but unfortunately, too many people consider it theirs to take. Good help at desk and very obliging.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d226222-r476958814-Extended_Stay_America_Houston_NASA_Bay_Area_Blvd-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>476958814</t>
+  </si>
+  <si>
+    <t>04/18/2017</t>
+  </si>
+  <si>
+    <t>On vacation</t>
+  </si>
+  <si>
+    <t>Looking for low prices hotels near Houston area for 3 adults to stay for a week I found Extended Stay America at Bay Blvd. I was a little afraid after reading most no good reviews, but I took the risk trusting that our stay will be different from others. I was right, can tell it was very good. First night our a/c didn't worked, went to front desk and Eduardo took care of it. He said that the day after maintenance will check it and if it doesn't work, then we will be moving to another room. A/c worked well for the second night but the night after will no longer worked. Front desk Victoria had all arranged for us in another room. We moved and it was a very comfortable suite. For my surprise, hotel refunded me for the two nights in adition to the discounts I have when I made my reservation. On the other side, sofa bed matress was so uncomfortable and dirty. But overall I can tell I am satisfied and have to give thanks to all personnel for being so sweet and pleasant.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Houston - NASA - Bay Area Blvd., responded to this reviewResponded April 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 19, 2017</t>
+  </si>
+  <si>
+    <t>Looking for low prices hotels near Houston area for 3 adults to stay for a week I found Extended Stay America at Bay Blvd. I was a little afraid after reading most no good reviews, but I took the risk trusting that our stay will be different from others. I was right, can tell it was very good. First night our a/c didn't worked, went to front desk and Eduardo took care of it. He said that the day after maintenance will check it and if it doesn't work, then we will be moving to another room. A/c worked well for the second night but the night after will no longer worked. Front desk Victoria had all arranged for us in another room. We moved and it was a very comfortable suite. For my surprise, hotel refunded me for the two nights in adition to the discounts I have when I made my reservation. On the other side, sofa bed matress was so uncomfortable and dirty. But overall I can tell I am satisfied and have to give thanks to all personnel for being so sweet and pleasant.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d226222-r476924904-Extended_Stay_America_Houston_NASA_Bay_Area_Blvd-Webster_Texas.html</t>
   </si>
   <si>
     <t>476924904</t>
   </si>
   <si>
-    <t>04/18/2017</t>
-  </si>
-  <si>
     <t>You may like this hotel IF:</t>
   </si>
   <si>
     <t>You like not having anyone at the front desk to greet you. You like hearing EVERYTHING your next door room neighbors are saying.  You like hearing what other people are saying when you walk down the hall.  You don't care that the "free breakfast" is instant oatmeal, granola bars and Otis Spunkmeyer mini-muffins.  You don't care that you need to get to the breakfast room early or coffee is out.  You like threadbare linens with burn holes and towels that are thin and scratchy.  You don't care that the room is only cleaned once a week and the hallways look like they are vacuumed when??  You like having to bring your own everything to use in the kitchenette.AND you don't care that this non-smoking hotel has cigarette smell, butts and a trash receptacle just so you can snuff out your cigarette.  You WON'T like it if you like manicured lawns and convenience to restaurants and a main highway.Hope this helps all my fellow travelers.MoreShow less</t>
   </si>
   <si>
-    <t>April 2017</t>
-  </si>
-  <si>
-    <t>00esa, General Manager at Extended Stay America - Houston - NASA - Bay Area Blvd., responded to this reviewResponded April 19, 2017</t>
-  </si>
-  <si>
-    <t>Responded April 19, 2017</t>
-  </si>
-  <si>
     <t>You like not having anyone at the front desk to greet you. You like hearing EVERYTHING your next door room neighbors are saying.  You like hearing what other people are saying when you walk down the hall.  You don't care that the "free breakfast" is instant oatmeal, granola bars and Otis Spunkmeyer mini-muffins.  You don't care that you need to get to the breakfast room early or coffee is out.  You like threadbare linens with burn holes and towels that are thin and scratchy.  You don't care that the room is only cleaned once a week and the hallways look like they are vacuumed when??  You like having to bring your own everything to use in the kitchenette.AND you don't care that this non-smoking hotel has cigarette smell, butts and a trash receptacle just so you can snuff out your cigarette.  You WON'T like it if you like manicured lawns and convenience to restaurants and a main highway.Hope this helps all my fellow travelers.More</t>
   </si>
   <si>
@@ -540,6 +774,60 @@
     <t>I've stayed at other Extended Stay locations and never had a problem. Here there were only two wash cloths for a week stay, toilet clogged and was told to wait, found fleas in the room. Not impressed. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d226222-r454134264-Extended_Stay_America_Houston_NASA_Bay_Area_Blvd-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>454134264</t>
+  </si>
+  <si>
+    <t>01/22/2017</t>
+  </si>
+  <si>
+    <t>Decent Stay</t>
+  </si>
+  <si>
+    <t>We were a victim of the Galveston fog and our cruise ship was delayed so I was in a hurry to book a cheap room for the night. The Extended Stay was the first one that popped up for the price I was looking for. The front desk staff is extremely friendly. The room is actually a little studio style room that has a kitchenette. The room was clean and the hotel appears to have been either recently remodeled or just well cared for. My only complaint was the breakfast. This place is geared more toward folks staying for a long period of time so the free breakfast was a couple muffins and some coffee. If breakfast is not a big deal for you then this would be a great place to stay. If we were going to be there for a week I would stay and then buy groceries. Also pick a room on a higher floor. We were on the first floor and there were some scary looking folks having a party or something in the parking lot right by our window.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Houston - NASA - Bay Area Blvd., responded to this reviewResponded January 26, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 26, 2017</t>
+  </si>
+  <si>
+    <t>We were a victim of the Galveston fog and our cruise ship was delayed so I was in a hurry to book a cheap room for the night. The Extended Stay was the first one that popped up for the price I was looking for. The front desk staff is extremely friendly. The room is actually a little studio style room that has a kitchenette. The room was clean and the hotel appears to have been either recently remodeled or just well cared for. My only complaint was the breakfast. This place is geared more toward folks staying for a long period of time so the free breakfast was a couple muffins and some coffee. If breakfast is not a big deal for you then this would be a great place to stay. If we were going to be there for a week I would stay and then buy groceries. Also pick a room on a higher floor. We were on the first floor and there were some scary looking folks having a party or something in the parking lot right by our window.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d226222-r427426871-Extended_Stay_America_Houston_NASA_Bay_Area_Blvd-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>427426871</t>
+  </si>
+  <si>
+    <t>10/12/2016</t>
+  </si>
+  <si>
+    <t>Family  between places</t>
+  </si>
+  <si>
+    <t>Customer service was on point and very helpful. Room was clean and nice looking.  Property has been recently  been re done and alot more  pleasant than when we stayed at the particular  hotel before. We will be backMoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Houston - NASA - Bay Area Blvd., responded to this reviewResponded October 17, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 17, 2016</t>
+  </si>
+  <si>
+    <t>Customer service was on point and very helpful. Room was clean and nice looking.  Property has been recently  been re done and alot more  pleasant than when we stayed at the particular  hotel before. We will be backMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d226222-r403742842-Extended_Stay_America_Houston_NASA_Bay_Area_Blvd-Webster_Texas.html</t>
   </si>
   <si>
@@ -619,6 +907,21 @@
   </si>
   <si>
     <t>Had a pleasant stay, the room I had was clean but had a faint smell of smoke for a non smoking.  It was nice and quiet and the staff friendly. Don't count on any breakfast unless you consider coffee, muffins and instant oatmeal breakfast, no fruit or protein.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d226222-r381727819-Extended_Stay_America_Houston_NASA_Bay_Area_Blvd-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>381727819</t>
+  </si>
+  <si>
+    <t>06/11/2016</t>
+  </si>
+  <si>
+    <t>Unclean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We got two rooms. One still had someone's dirty clothes in it. Obviously not cleaned well, if we discovered them, within 30 seconds of walking in the room. The staff was unapologetic and rolled eyes. Without saying so much of a word, just handed us another key. The other room is next to the trash room and has a bad smell. Would never stay here again. </t>
   </si>
 </sst>
 </file>
@@ -1217,34 +1520,28 @@
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="O3" t="s">
         <v>52</v>
       </c>
-      <c r="P3" t="n">
-        <v>4</v>
-      </c>
+      <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
       <c r="R3" t="s"/>
-      <c r="S3" t="n">
-        <v>5</v>
-      </c>
+      <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="n">
-        <v>5</v>
-      </c>
+      <c r="U3" t="s"/>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s">
+        <v>61</v>
+      </c>
+      <c r="X3" t="s">
         <v>62</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>63</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="4">
@@ -1260,7 +1557,7 @@
         <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G4" t="s">
         <v>45</v>
@@ -1269,10 +1566,10 @@
         <v>46</v>
       </c>
       <c r="I4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" t="s">
         <v>66</v>
-      </c>
-      <c r="J4" t="s">
-        <v>58</v>
       </c>
       <c r="K4" t="s">
         <v>67</v>
@@ -1284,10 +1581,10 @@
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="O4" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1299,13 +1596,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
+        <v>69</v>
+      </c>
+      <c r="X4" t="s">
         <v>70</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>71</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="5">
@@ -1321,7 +1618,7 @@
         <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G5" t="s">
         <v>45</v>
@@ -1330,35 +1627,31 @@
         <v>46</v>
       </c>
       <c r="I5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J5" t="s">
         <v>74</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>75</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>76</v>
-      </c>
-      <c r="L5" t="s">
-        <v>77</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O5" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="P5" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>5</v>
-      </c>
-      <c r="R5" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
       <c r="S5" t="n">
         <v>5</v>
       </c>
@@ -1370,13 +1663,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
+        <v>78</v>
+      </c>
+      <c r="X5" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y5" t="s">
         <v>80</v>
-      </c>
-      <c r="X5" t="s">
-        <v>81</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="6">
@@ -1392,7 +1685,7 @@
         <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G6" t="s">
         <v>45</v>
@@ -1401,25 +1694,25 @@
         <v>46</v>
       </c>
       <c r="I6" t="s">
+        <v>82</v>
+      </c>
+      <c r="J6" t="s">
+        <v>74</v>
+      </c>
+      <c r="K6" t="s">
+        <v>83</v>
+      </c>
+      <c r="L6" t="s">
         <v>84</v>
-      </c>
-      <c r="J6" t="s">
-        <v>85</v>
-      </c>
-      <c r="K6" t="s">
-        <v>86</v>
-      </c>
-      <c r="L6" t="s">
-        <v>87</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="O6" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1431,13 +1724,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="X6" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="Y6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7">
@@ -1453,7 +1746,7 @@
         <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G7" t="s">
         <v>45</v>
@@ -1462,53 +1755,43 @@
         <v>46</v>
       </c>
       <c r="I7" t="s">
+        <v>90</v>
+      </c>
+      <c r="J7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L7" t="s">
+        <v>93</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
         <v>94</v>
       </c>
-      <c r="J7" t="s">
+      <c r="O7" t="s">
         <v>95</v>
       </c>
-      <c r="K7" t="s">
-        <v>96</v>
-      </c>
-      <c r="L7" t="s">
-        <v>97</v>
-      </c>
-      <c r="M7" t="n">
-        <v>3</v>
-      </c>
-      <c r="N7" t="s">
-        <v>88</v>
-      </c>
-      <c r="O7" t="s">
-        <v>89</v>
-      </c>
-      <c r="P7" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>3</v>
-      </c>
-      <c r="R7" t="n">
-        <v>5</v>
-      </c>
-      <c r="S7" t="n">
-        <v>5</v>
-      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="n">
-        <v>4</v>
-      </c>
+      <c r="U7" t="s"/>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s">
+        <v>96</v>
+      </c>
+      <c r="X7" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y7" t="s">
         <v>98</v>
-      </c>
-      <c r="X7" t="s">
-        <v>99</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="8">
@@ -1524,7 +1807,7 @@
         <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G8" t="s">
         <v>45</v>
@@ -1533,22 +1816,22 @@
         <v>46</v>
       </c>
       <c r="I8" t="s">
+        <v>100</v>
+      </c>
+      <c r="J8" t="s">
+        <v>101</v>
+      </c>
+      <c r="K8" t="s">
         <v>102</v>
       </c>
-      <c r="J8" t="s">
+      <c r="L8" t="s">
         <v>103</v>
-      </c>
-      <c r="K8" t="s">
-        <v>104</v>
-      </c>
-      <c r="L8" t="s">
-        <v>105</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O8" t="s">
         <v>52</v>
@@ -1560,26 +1843,26 @@
         <v>1</v>
       </c>
       <c r="R8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S8" t="n">
         <v>1</v>
       </c>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s">
+        <v>105</v>
+      </c>
+      <c r="X8" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y8" t="s">
         <v>107</v>
-      </c>
-      <c r="X8" t="s">
-        <v>108</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="9">
@@ -1595,7 +1878,7 @@
         <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G9" t="s">
         <v>45</v>
@@ -1604,53 +1887,53 @@
         <v>46</v>
       </c>
       <c r="I9" t="s">
+        <v>109</v>
+      </c>
+      <c r="J9" t="s">
+        <v>110</v>
+      </c>
+      <c r="K9" t="s">
         <v>111</v>
       </c>
-      <c r="J9" t="s">
+      <c r="L9" t="s">
         <v>112</v>
       </c>
-      <c r="K9" t="s">
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>104</v>
+      </c>
+      <c r="O9" t="s">
         <v>113</v>
       </c>
-      <c r="L9" t="s">
-        <v>114</v>
-      </c>
-      <c r="M9" t="n">
-        <v>3</v>
-      </c>
-      <c r="N9" t="s">
-        <v>106</v>
-      </c>
-      <c r="O9" t="s">
-        <v>115</v>
-      </c>
       <c r="P9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s">
+        <v>114</v>
+      </c>
+      <c r="X9" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y9" t="s">
         <v>116</v>
-      </c>
-      <c r="X9" t="s">
-        <v>117</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="10">
@@ -1666,7 +1949,7 @@
         <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G10" t="s">
         <v>45</v>
@@ -1675,53 +1958,43 @@
         <v>46</v>
       </c>
       <c r="I10" t="s">
+        <v>118</v>
+      </c>
+      <c r="J10" t="s">
+        <v>119</v>
+      </c>
+      <c r="K10" t="s">
         <v>120</v>
       </c>
-      <c r="J10" t="s">
+      <c r="L10" t="s">
         <v>121</v>
       </c>
-      <c r="K10" t="s">
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
         <v>122</v>
       </c>
-      <c r="L10" t="s">
-        <v>123</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="s">
-        <v>106</v>
-      </c>
       <c r="O10" t="s">
-        <v>52</v>
-      </c>
-      <c r="P10" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1</v>
-      </c>
-      <c r="R10" t="n">
-        <v>3</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="n">
-        <v>3</v>
-      </c>
+      <c r="U10" t="s"/>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s">
+        <v>123</v>
+      </c>
+      <c r="X10" t="s">
         <v>124</v>
       </c>
-      <c r="X10" t="s">
+      <c r="Y10" t="s">
         <v>125</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="11">
@@ -1737,7 +2010,7 @@
         <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G11" t="s">
         <v>45</v>
@@ -1746,25 +2019,25 @@
         <v>46</v>
       </c>
       <c r="I11" t="s">
+        <v>127</v>
+      </c>
+      <c r="J11" t="s">
         <v>128</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>129</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>130</v>
-      </c>
-      <c r="L11" t="s">
-        <v>131</v>
       </c>
       <c r="M11" t="n">
         <v>3</v>
       </c>
       <c r="N11" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="O11" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="P11" t="n">
         <v>3</v>
@@ -1773,26 +2046,26 @@
         <v>3</v>
       </c>
       <c r="R11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T11" t="s"/>
       <c r="U11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s">
+        <v>131</v>
+      </c>
+      <c r="X11" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y11" t="s">
         <v>133</v>
-      </c>
-      <c r="X11" t="s">
-        <v>134</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="12">
@@ -1808,7 +2081,7 @@
         <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G12" t="s">
         <v>45</v>
@@ -1817,25 +2090,33 @@
         <v>46</v>
       </c>
       <c r="I12" t="s">
+        <v>135</v>
+      </c>
+      <c r="J12" t="s">
+        <v>136</v>
+      </c>
+      <c r="K12" t="s">
         <v>137</v>
       </c>
-      <c r="J12" t="s">
+      <c r="L12" t="s">
         <v>138</v>
       </c>
-      <c r="K12" t="s">
+      <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
         <v>139</v>
       </c>
-      <c r="L12" t="s">
-        <v>140</v>
-      </c>
-      <c r="M12" t="n">
-        <v>5</v>
-      </c>
-      <c r="N12" t="s"/>
-      <c r="O12" t="s"/>
-      <c r="P12" t="s"/>
+      <c r="O12" t="s">
+        <v>85</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3</v>
+      </c>
       <c r="Q12" t="s"/>
-      <c r="R12" t="s"/>
+      <c r="R12" t="n">
+        <v>4</v>
+      </c>
       <c r="S12" t="s"/>
       <c r="T12" t="s"/>
       <c r="U12" t="s"/>
@@ -1843,13 +2124,13 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
+        <v>140</v>
+      </c>
+      <c r="X12" t="s">
         <v>141</v>
       </c>
-      <c r="X12" t="s">
+      <c r="Y12" t="s">
         <v>142</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="13">
@@ -1865,7 +2146,7 @@
         <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G13" t="s">
         <v>45</v>
@@ -1874,10 +2155,10 @@
         <v>46</v>
       </c>
       <c r="I13" t="s">
+        <v>144</v>
+      </c>
+      <c r="J13" t="s">
         <v>145</v>
-      </c>
-      <c r="J13" t="s">
-        <v>138</v>
       </c>
       <c r="K13" t="s">
         <v>146</v>
@@ -1886,27 +2167,41 @@
         <v>147</v>
       </c>
       <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>148</v>
+      </c>
+      <c r="O13" t="s">
+        <v>85</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2</v>
+      </c>
+      <c r="R13" t="n">
         <v>5</v>
       </c>
-      <c r="N13" t="s"/>
-      <c r="O13" t="s"/>
-      <c r="P13" t="s"/>
-      <c r="Q13" t="s"/>
-      <c r="R13" t="s"/>
-      <c r="S13" t="s"/>
+      <c r="S13" t="n">
+        <v>1</v>
+      </c>
       <c r="T13" t="s"/>
-      <c r="U13" t="s"/>
+      <c r="U13" t="n">
+        <v>3</v>
+      </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="X13" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="Y13" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14">
@@ -1922,7 +2217,7 @@
         <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="G14" t="s">
         <v>45</v>
@@ -1931,43 +2226,53 @@
         <v>46</v>
       </c>
       <c r="I14" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="J14" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="K14" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="L14" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="O14" t="s">
-        <v>69</v>
-      </c>
-      <c r="P14" t="s"/>
-      <c r="Q14" t="s"/>
-      <c r="R14" t="s"/>
-      <c r="S14" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1</v>
+      </c>
       <c r="T14" t="s"/>
-      <c r="U14" t="s"/>
+      <c r="U14" t="n">
+        <v>2</v>
+      </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="X14" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Y14" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15">
@@ -1983,7 +2288,7 @@
         <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G15" t="s">
         <v>45</v>
@@ -1992,39 +2297,53 @@
         <v>46</v>
       </c>
       <c r="I15" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="J15" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="K15" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L15" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N15" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="O15" t="s">
-        <v>52</v>
-      </c>
-      <c r="P15" t="s"/>
-      <c r="Q15" t="s"/>
-      <c r="R15" t="s"/>
-      <c r="S15" t="s"/>
+        <v>165</v>
+      </c>
+      <c r="P15" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>4</v>
+      </c>
+      <c r="R15" t="n">
+        <v>4</v>
+      </c>
+      <c r="S15" t="n">
+        <v>4</v>
+      </c>
       <c r="T15" t="s"/>
-      <c r="U15" t="s"/>
+      <c r="U15" t="n">
+        <v>4</v>
+      </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
-      <c r="W15" t="s"/>
-      <c r="X15" t="s"/>
+      <c r="W15" t="s">
+        <v>166</v>
+      </c>
+      <c r="X15" t="s">
+        <v>167</v>
+      </c>
       <c r="Y15" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16">
@@ -2040,7 +2359,7 @@
         <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="G16" t="s">
         <v>45</v>
@@ -2049,43 +2368,53 @@
         <v>46</v>
       </c>
       <c r="I16" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="J16" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="K16" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="L16" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="M16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="O16" t="s">
-        <v>115</v>
-      </c>
-      <c r="P16" t="s"/>
-      <c r="Q16" t="s"/>
-      <c r="R16" t="s"/>
-      <c r="S16" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1</v>
+      </c>
+      <c r="R16" t="n">
+        <v>3</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1</v>
+      </c>
       <c r="T16" t="s"/>
-      <c r="U16" t="s"/>
+      <c r="U16" t="n">
+        <v>3</v>
+      </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="X16" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Y16" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17">
@@ -2101,7 +2430,7 @@
         <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="G17" t="s">
         <v>45</v>
@@ -2110,43 +2439,53 @@
         <v>46</v>
       </c>
       <c r="I17" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="J17" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="K17" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="L17" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="M17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N17" t="s">
-        <v>179</v>
+        <v>148</v>
       </c>
       <c r="O17" t="s">
         <v>52</v>
       </c>
-      <c r="P17" t="s"/>
-      <c r="Q17" t="s"/>
-      <c r="R17" t="s"/>
-      <c r="S17" t="s"/>
+      <c r="P17" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>3</v>
+      </c>
+      <c r="R17" t="n">
+        <v>3</v>
+      </c>
+      <c r="S17" t="n">
+        <v>3</v>
+      </c>
       <c r="T17" t="s"/>
-      <c r="U17" t="s"/>
+      <c r="U17" t="n">
+        <v>3</v>
+      </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="X17" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Y17" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="18">
@@ -2162,7 +2501,7 @@
         <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G18" t="s">
         <v>45</v>
@@ -2171,32 +2510,38 @@
         <v>46</v>
       </c>
       <c r="I18" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="J18" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K18" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L18" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M18" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>188</v>
+        <v>148</v>
       </c>
       <c r="O18" t="s">
-        <v>89</v>
-      </c>
-      <c r="P18" t="s"/>
-      <c r="Q18" t="s"/>
+        <v>165</v>
+      </c>
+      <c r="P18" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1</v>
+      </c>
       <c r="R18" t="n">
         <v>5</v>
       </c>
-      <c r="S18" t="s"/>
+      <c r="S18" t="n">
+        <v>2</v>
+      </c>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
         <v>5</v>
@@ -2248,23 +2593,29 @@
         <v>196</v>
       </c>
       <c r="M19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N19" t="s">
         <v>197</v>
       </c>
       <c r="O19" t="s">
-        <v>115</v>
-      </c>
-      <c r="P19" t="s"/>
-      <c r="Q19" t="s"/>
+        <v>113</v>
+      </c>
+      <c r="P19" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>3</v>
+      </c>
       <c r="R19" t="n">
-        <v>5</v>
-      </c>
-      <c r="S19" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="S19" t="n">
+        <v>3</v>
+      </c>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2277,6 +2628,811 @@
       </c>
       <c r="Y19" t="s">
         <v>200</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>36291</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>201</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>202</v>
+      </c>
+      <c r="J20" t="s">
+        <v>203</v>
+      </c>
+      <c r="K20" t="s">
+        <v>204</v>
+      </c>
+      <c r="L20" t="s">
+        <v>205</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s"/>
+      <c r="O20" t="s"/>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>206</v>
+      </c>
+      <c r="X20" t="s">
+        <v>207</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>36291</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>209</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>210</v>
+      </c>
+      <c r="J21" t="s">
+        <v>203</v>
+      </c>
+      <c r="K21" t="s">
+        <v>211</v>
+      </c>
+      <c r="L21" t="s">
+        <v>212</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s"/>
+      <c r="O21" t="s"/>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>206</v>
+      </c>
+      <c r="X21" t="s">
+        <v>207</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>36291</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>214</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>215</v>
+      </c>
+      <c r="J22" t="s">
+        <v>216</v>
+      </c>
+      <c r="K22" t="s">
+        <v>217</v>
+      </c>
+      <c r="L22" t="s">
+        <v>218</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>219</v>
+      </c>
+      <c r="O22" t="s">
+        <v>52</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>4</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>220</v>
+      </c>
+      <c r="X22" t="s">
+        <v>221</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>36291</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>223</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>224</v>
+      </c>
+      <c r="J23" t="s">
+        <v>225</v>
+      </c>
+      <c r="K23" t="s">
+        <v>226</v>
+      </c>
+      <c r="L23" t="s">
+        <v>227</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>219</v>
+      </c>
+      <c r="O23" t="s">
+        <v>52</v>
+      </c>
+      <c r="P23" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="n">
+        <v>3</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>228</v>
+      </c>
+      <c r="X23" t="s">
+        <v>229</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>36291</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>231</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>232</v>
+      </c>
+      <c r="J24" t="s">
+        <v>225</v>
+      </c>
+      <c r="K24" t="s">
+        <v>233</v>
+      </c>
+      <c r="L24" t="s">
+        <v>234</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" t="s">
+        <v>219</v>
+      </c>
+      <c r="O24" t="s">
+        <v>85</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>228</v>
+      </c>
+      <c r="X24" t="s">
+        <v>229</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>36291</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>236</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>237</v>
+      </c>
+      <c r="J25" t="s">
+        <v>238</v>
+      </c>
+      <c r="K25" t="s">
+        <v>239</v>
+      </c>
+      <c r="L25" t="s">
+        <v>240</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" t="s">
+        <v>241</v>
+      </c>
+      <c r="O25" t="s">
+        <v>52</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>36291</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>243</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>244</v>
+      </c>
+      <c r="J26" t="s">
+        <v>245</v>
+      </c>
+      <c r="K26" t="s">
+        <v>246</v>
+      </c>
+      <c r="L26" t="s">
+        <v>247</v>
+      </c>
+      <c r="M26" t="n">
+        <v>2</v>
+      </c>
+      <c r="N26" t="s">
+        <v>248</v>
+      </c>
+      <c r="O26" t="s">
+        <v>165</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>249</v>
+      </c>
+      <c r="X26" t="s">
+        <v>250</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>36291</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>252</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>253</v>
+      </c>
+      <c r="J27" t="s">
+        <v>254</v>
+      </c>
+      <c r="K27" t="s">
+        <v>255</v>
+      </c>
+      <c r="L27" t="s">
+        <v>256</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>257</v>
+      </c>
+      <c r="O27" t="s">
+        <v>113</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>258</v>
+      </c>
+      <c r="X27" t="s">
+        <v>259</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>36291</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" t="s">
+        <v>261</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
+        <v>262</v>
+      </c>
+      <c r="J28" t="s">
+        <v>263</v>
+      </c>
+      <c r="K28" t="s">
+        <v>264</v>
+      </c>
+      <c r="L28" t="s">
+        <v>265</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>266</v>
+      </c>
+      <c r="O28" t="s">
+        <v>52</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="n">
+        <v>4</v>
+      </c>
+      <c r="R28" t="n">
+        <v>3</v>
+      </c>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>4</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>267</v>
+      </c>
+      <c r="X28" t="s">
+        <v>268</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>36291</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>270</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
+        <v>271</v>
+      </c>
+      <c r="J29" t="s">
+        <v>272</v>
+      </c>
+      <c r="K29" t="s">
+        <v>273</v>
+      </c>
+      <c r="L29" t="s">
+        <v>274</v>
+      </c>
+      <c r="M29" t="n">
+        <v>3</v>
+      </c>
+      <c r="N29" t="s">
+        <v>275</v>
+      </c>
+      <c r="O29" t="s">
+        <v>52</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>276</v>
+      </c>
+      <c r="X29" t="s">
+        <v>277</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>36291</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" t="s">
+        <v>279</v>
+      </c>
+      <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s">
+        <v>280</v>
+      </c>
+      <c r="J30" t="s">
+        <v>281</v>
+      </c>
+      <c r="K30" t="s">
+        <v>282</v>
+      </c>
+      <c r="L30" t="s">
+        <v>283</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>284</v>
+      </c>
+      <c r="O30" t="s">
+        <v>95</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>285</v>
+      </c>
+      <c r="X30" t="s">
+        <v>286</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>36291</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" t="s">
+        <v>288</v>
+      </c>
+      <c r="G31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" t="s">
+        <v>289</v>
+      </c>
+      <c r="J31" t="s">
+        <v>290</v>
+      </c>
+      <c r="K31" t="s">
+        <v>291</v>
+      </c>
+      <c r="L31" t="s">
+        <v>292</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>293</v>
+      </c>
+      <c r="O31" t="s">
+        <v>165</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>294</v>
+      </c>
+      <c r="X31" t="s">
+        <v>295</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>36291</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" t="s">
+        <v>297</v>
+      </c>
+      <c r="G32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" t="s">
+        <v>298</v>
+      </c>
+      <c r="J32" t="s">
+        <v>299</v>
+      </c>
+      <c r="K32" t="s">
+        <v>300</v>
+      </c>
+      <c r="L32" t="s">
+        <v>301</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1</v>
+      </c>
+      <c r="N32" t="s">
+        <v>275</v>
+      </c>
+      <c r="O32" t="s">
+        <v>52</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>301</v>
       </c>
     </row>
   </sheetData>
